--- a/data/trans_camb/P23_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Edad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.36514654253194</v>
+        <v>-11.45816043766306</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.18346791300081</v>
+        <v>-13.37644892246389</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.691049187762121</v>
+        <v>-8.15273551520573</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-15.2832584507714</v>
+        <v>-15.1837196239157</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.744621992294391</v>
+        <v>-7.62715592135986</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-12.94763572010567</v>
+        <v>-12.92300426091484</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.141042354329319</v>
+        <v>1.422511348085467</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.586720598072206</v>
+        <v>-0.5338552185732598</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.317434806238065</v>
+        <v>4.64862242868748</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-3.164020455241106</v>
+        <v>-3.298565083196687</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7224964496355053</v>
+        <v>0.7707486561647805</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-3.718448225678391</v>
+        <v>-3.844573960914179</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2504343128466592</v>
+        <v>-0.2594413680129981</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2960242303744508</v>
+        <v>-0.3004970697675819</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1908810216719829</v>
+        <v>-0.2070818606358357</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3968048796821115</v>
+        <v>-0.3889906247221445</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1851322570432722</v>
+        <v>-0.189339459024876</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3113765597590324</v>
+        <v>-0.317628674836249</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.03138218796470051</v>
+        <v>0.03803184739018155</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.01458365853888125</v>
+        <v>-0.01103947351710743</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1294756778093888</v>
+        <v>0.1401481044347594</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.09261840662298851</v>
+        <v>-0.0968708096383217</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02327483083743502</v>
+        <v>0.01847986735757267</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1023353787851905</v>
+        <v>-0.1041667318849586</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.838375726611325</v>
+        <v>-8.938005654724556</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.93189384330274</v>
+        <v>-14.81275688139311</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.211829846650146</v>
+        <v>-2.34887931948486</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.740209618701781</v>
+        <v>-4.28834527293552</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.374742213163247</v>
+        <v>-4.068778388932916</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.051454073352641</v>
+        <v>-8.50627789355628</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.54360028664036</v>
+        <v>2.524209563840683</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.906656741689247</v>
+        <v>-2.765372459107381</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.080043873242998</v>
+        <v>9.349498181062691</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.643376528148213</v>
+        <v>6.679772908019544</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.512128430045187</v>
+        <v>3.490192958321515</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.5463634173254877</v>
+        <v>-0.2538184584379137</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1567232332133559</v>
+        <v>-0.1565986272377353</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2506522925495273</v>
+        <v>-0.2618591277965494</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05434534317053556</v>
+        <v>-0.05829006240730455</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.118465333499452</v>
+        <v>-0.1064070283387902</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.09125256774963449</v>
+        <v>-0.08365054627006638</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.185198056191633</v>
+        <v>-0.1738490566636806</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.02958157416317862</v>
+        <v>0.05380083275259458</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.05741899339965478</v>
+        <v>-0.05420357975963685</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2598657737250289</v>
+        <v>0.2717158592798422</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.197552313261061</v>
+        <v>0.1970241905050568</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07996628144347609</v>
+        <v>0.07882569042507817</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.01065829061479098</v>
+        <v>-0.005230919749674249</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.3828609759889</v>
+        <v>-11.40200168856304</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-18.74573274171338</v>
+        <v>-18.85293569138308</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.681242244731538</v>
+        <v>-7.670403279090146</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.495211154376978</v>
+        <v>-8.98715851490549</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.741879464911561</v>
+        <v>-7.766662067647618</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-12.25268019700076</v>
+        <v>-12.21765474117878</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.003004127888604953</v>
+        <v>-0.0213532024562052</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-7.539898741167887</v>
+        <v>-7.529377591727607</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.959892778874367</v>
+        <v>2.758642391531147</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.182168520247727</v>
+        <v>1.086242247917472</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.06204139957315025</v>
+        <v>-0.2164313006300589</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-4.696907578824483</v>
+        <v>-4.328749425145699</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2022801346206156</v>
+        <v>-0.1989390243555293</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3346486108882374</v>
+        <v>-0.3377110730891992</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1977047520532926</v>
+        <v>-0.1950939381523501</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2356970357918851</v>
+        <v>-0.2254073869290996</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1656099696853503</v>
+        <v>-0.1679371245721306</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2589293821254263</v>
+        <v>-0.2602647562485976</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.0003162027811341277</v>
+        <v>0.0007561352335364118</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1501777577306868</v>
+        <v>-0.1491896782312051</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.08725181992701669</v>
+        <v>0.07823929568340246</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.03543432271028259</v>
+        <v>0.03253611287894547</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.004496775006663326</v>
+        <v>-0.005551449966891423</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1077967545832144</v>
+        <v>-0.1032016937346061</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.740545540300546</v>
+        <v>-6.253139959913477</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.528270996036643</v>
+        <v>-8.519385396311682</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.974935926512082</v>
+        <v>5.130637764568269</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.975257113133634</v>
+        <v>2.384704510863575</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.362912490865453</v>
+        <v>0.504854318028176</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.268369086194522</v>
+        <v>-1.624544864144858</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.261550204800488</v>
+        <v>6.159881659270485</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.037977585795844</v>
+        <v>4.071873562242882</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.59637357732967</v>
+        <v>17.06987359115604</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.06890654859585</v>
+        <v>13.737130162449</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.846937668630405</v>
+        <v>9.76258801162432</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.864447399496976</v>
+        <v>6.512954540639631</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.119384824871221</v>
+        <v>-0.1293159715311333</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1749351670314708</v>
+        <v>-0.171201929156393</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1598923647560572</v>
+        <v>0.1728973095824791</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.0627368497292933</v>
+        <v>0.07839010581885933</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03195591182184104</v>
+        <v>0.01544249105147327</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03397310289002924</v>
+        <v>-0.04506963625485322</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1549147436540034</v>
+        <v>0.1462873333125161</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.09770763253849137</v>
+        <v>0.09726382512691069</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6657118054704969</v>
+        <v>0.6815857161088251</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5329068429211029</v>
+        <v>0.5555074748949111</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2858453831778989</v>
+        <v>0.2824649867765501</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1999675493164039</v>
+        <v>0.1885698920728189</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.263370110741282</v>
+        <v>-4.131790959479314</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.886590692961018</v>
+        <v>-9.728050067537126</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.29329724632839</v>
+        <v>-0.6776381321781296</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.447661282861707</v>
+        <v>6.380607779603318</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.951376326837971</v>
+        <v>-0.9277906703777384</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.1853890807211926</v>
+        <v>0.3696466102420021</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.96421121461024</v>
+        <v>9.587065964882962</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.491025646020052</v>
+        <v>4.017099520686604</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.431554087980468</v>
+        <v>8.516198039119924</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.61038665876907</v>
+        <v>16.69267157806837</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.518099663728248</v>
+        <v>7.715880098851102</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.691510742288388</v>
+        <v>8.770558578884229</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.09198230875888561</v>
+        <v>-0.1131660686312214</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2420805106081545</v>
+        <v>-0.2588998842003203</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.08928884039558563</v>
+        <v>-0.05662249308451309</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4621108874071237</v>
+        <v>0.4690080113012338</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03829533787061894</v>
+        <v>-0.03935013006236162</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.007370511840745472</v>
+        <v>0.01469063704052481</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3737794823466247</v>
+        <v>0.3190587143335423</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1535696957765648</v>
+        <v>0.1401241064880553</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.906068150189001</v>
+        <v>0.9449995206193272</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.792525327630297</v>
+        <v>1.767997404598519</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3745672008673891</v>
+        <v>0.383075814473927</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4284686468793496</v>
+        <v>0.4293872174055147</v>
       </c>
     </row>
     <row r="34">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.982393182833268</v>
+        <v>-7.546959567745488</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-7.007239465676948</v>
+        <v>-7.231962543225916</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.8194428502607842</v>
+        <v>0.8381664287459791</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.955737822790766</v>
+        <v>3.300405925783482</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.169228564049702</v>
+        <v>-1.775492376037271</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.2822998634772049</v>
+        <v>-0.1888220040874215</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.790731120876702</v>
+        <v>5.173506810872771</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.416326667500871</v>
+        <v>4.916066023389694</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.492519387870797</v>
+        <v>6.624926987319951</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.254029917305738</v>
+        <v>9.43173725861687</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.770534316225807</v>
+        <v>4.642102179175167</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.52105710668966</v>
+        <v>7.052005201153218</v>
       </c>
     </row>
     <row r="37">
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3691052329563916</v>
+        <v>-0.3635159472222473</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3278827516155229</v>
+        <v>-0.349325173885302</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.1005249411235436</v>
+        <v>0.1803955661957641</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.8843981707761452</v>
+        <v>0.9844539723853661</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1993403704130309</v>
+        <v>-0.1633752821140571</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.05164960156090809</v>
+        <v>-0.03931301497506118</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3166998160203133</v>
+        <v>0.3425136615433526</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3572023637960933</v>
+        <v>0.3138041871081432</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>7.364816740014466</v>
+        <v>6.60894033554571</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>10.36172435436105</v>
+        <v>10.66500997048081</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.6064017422889419</v>
+        <v>0.5958836950707912</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.8011162798770157</v>
+        <v>0.8614111303097172</v>
       </c>
     </row>
     <row r="40">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.805488008567905</v>
+        <v>-5.363804559962919</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.314165178658166</v>
+        <v>-6.029582692696684</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.330677545444091</v>
+        <v>-2.251367701473082</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.526430742237492</v>
+        <v>-1.334093004584037</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.56684998592388</v>
+        <v>-3.061283378940788</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.515886652020177</v>
+        <v>-2.506580142657508</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.226529793195664</v>
+        <v>5.800652874656603</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.847504502294775</v>
+        <v>4.193530445231698</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.51993102524776</v>
+        <v>1.47304942942014</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.656361027828046</v>
+        <v>2.985020590753747</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.642177880443813</v>
+        <v>2.32041248412405</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.599430807694848</v>
+        <v>2.330284364750712</v>
       </c>
     </row>
     <row r="43">
@@ -1673,22 +1673,20 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4288359622975763</v>
+        <v>-0.4156693973962423</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4705140869217217</v>
-      </c>
-      <c r="E44" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.4395414750943834</v>
+      </c>
+      <c r="E44" s="6" t="inlineStr"/>
       <c r="F44" s="6" t="n">
-        <v>-0.8127643237332182</v>
+        <v>-0.6460651594830537</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4307786218018421</v>
+        <v>-0.4744832794287378</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4060739229743149</v>
+        <v>-0.3901524819766264</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1697,20 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.8053421176135386</v>
+        <v>0.8403645907335444</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5229564764955409</v>
-      </c>
-      <c r="E45" s="6" t="n">
-        <v>3.752678631696354</v>
-      </c>
+        <v>0.6307222780423204</v>
+      </c>
+      <c r="E45" s="6" t="inlineStr"/>
       <c r="F45" s="6" t="n">
-        <v>5.015203200051528</v>
+        <v>8.662369330520731</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7081481957290493</v>
+        <v>0.6252488265977665</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7858564729203218</v>
+        <v>0.6825784848713345</v>
       </c>
     </row>
     <row r="46">
@@ -1755,22 +1751,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-5.12058640259259</v>
+        <v>-5.081337695461355</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-9.613193531229392</v>
+        <v>-9.770339637869107</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.1525334017222749</v>
+        <v>-0.3186418507872746</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.425052817723302</v>
+        <v>-1.478537977259147</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.985868845086793</v>
+        <v>-1.9255358645364</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.796046429952485</v>
+        <v>-4.796612315775187</v>
       </c>
     </row>
     <row r="48">
@@ -1781,22 +1777,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.2117924130560807</v>
+        <v>-0.0499385925289485</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-4.779998509750367</v>
+        <v>-4.854888214244625</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.015433491771693</v>
+        <v>4.118978274967229</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.760906374559943</v>
+        <v>2.715093194772499</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.332426637044434</v>
+        <v>1.325825494086806</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-1.55055315163039</v>
+        <v>-1.574422924698761</v>
       </c>
     </row>
     <row r="49">
@@ -1833,22 +1829,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1174409452394725</v>
+        <v>-0.1155805426705771</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2190070963914128</v>
+        <v>-0.2244277330976118</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.005802645161764353</v>
+        <v>-0.01081602284843174</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.05339901965960924</v>
+        <v>-0.05615396971335959</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.05770372673995874</v>
+        <v>-0.05626359254858772</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1392919903032169</v>
+        <v>-0.1390707087133861</v>
       </c>
     </row>
     <row r="51">
@@ -1859,22 +1855,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.004083458010875045</v>
+        <v>-0.0004734268919717833</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1153208871750345</v>
+        <v>-0.1178759615544743</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1635116726365666</v>
+        <v>0.168458911547656</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1109107463830244</v>
+        <v>0.1110525759719139</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.0398489306604507</v>
+        <v>0.04017462754279869</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.04709289305603823</v>
+        <v>-0.0481678203443866</v>
       </c>
     </row>
     <row r="52">
